--- a/1.DELIVERABLE/1.10 EFFORT_LOG/Week22/BSS_EffortLog_HienNguyen_Week22.xlsx
+++ b/1.DELIVERABLE/1.10 EFFORT_LOG/Week22/BSS_EffortLog_HienNguyen_Week22.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t xml:space="preserve">EFFORT LOG </t>
   </si>
@@ -51,34 +51,28 @@
     <t>Training Technical</t>
   </si>
   <si>
-    <t>13/2/2017</t>
+    <t>Implement "Approve News" function on server</t>
   </si>
   <si>
-    <t>Demo "View News" function</t>
+    <t>Implement "Deactive News" function on server</t>
   </si>
   <si>
-    <t>14/2/2017</t>
+    <t xml:space="preserve">Implement "Search News" function on server </t>
   </si>
   <si>
-    <t>Demo "Create Draft" function</t>
+    <t>Implement "Sort News" function on server</t>
   </si>
   <si>
-    <t>Demo "Edit News" function</t>
+    <t>Implement "View categories" function on server</t>
   </si>
   <si>
-    <t>15/2/2017</t>
+    <t>27/2/2017</t>
   </si>
   <si>
-    <t>Implement "Deactivate News" function</t>
+    <t>28/2/2017</t>
   </si>
   <si>
-    <t>16/2/2017</t>
-  </si>
-  <si>
-    <t>18/2/2017</t>
-  </si>
-  <si>
-    <t>WEEK: 20</t>
+    <t>WEEK: 22</t>
   </si>
 </sst>
 </file>
@@ -206,14 +200,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -540,7 +534,7 @@
   <cols>
     <col min="1" max="2" width="8" style="3" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="3" customWidth="1"/>
     <col min="7" max="7" width="23.5703125" style="3" customWidth="1"/>
@@ -552,14 +546,14 @@
     <row r="1" spans="1:27" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -583,14 +577,14 @@
     <row r="2" spans="1:27" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="12" t="s">
-        <v>19</v>
+      <c r="C2" s="14" t="s">
+        <v>17</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -684,17 +678,17 @@
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="14">
+      <c r="C5" s="12">
         <v>1</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G5" s="10">
         <v>2</v>
@@ -725,23 +719,23 @@
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="14">
+      <c r="C6" s="12">
         <v>2</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>11</v>
+      <c r="D6" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G6" s="10">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H6" s="10">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -766,23 +760,23 @@
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="14">
+      <c r="C7" s="12">
         <v>3</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>9</v>
+      <c r="D7" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G7" s="10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H7" s="10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -807,20 +801,20 @@
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="14">
+      <c r="C8" s="12">
         <v>4</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>13</v>
+      <c r="D8" s="11" t="s">
+        <v>9</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>12</v>
+      <c r="E8" s="9">
+        <v>42738</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>12</v>
+      <c r="F8" s="9">
+        <v>42738</v>
       </c>
       <c r="G8" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="10">
         <v>2</v>
@@ -848,23 +842,23 @@
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="14">
+      <c r="C9" s="12">
         <v>5</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>12</v>
+      <c r="E9" s="9">
+        <v>42738</v>
+      </c>
+      <c r="F9" s="9">
+        <v>42797</v>
       </c>
       <c r="G9" s="10">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H9" s="10">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -889,23 +883,23 @@
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="14">
+      <c r="C10" s="12">
         <v>6</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>8</v>
+      <c r="D10" s="11" t="s">
+        <v>13</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>15</v>
+      <c r="E10" s="9">
+        <v>42738</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>15</v>
+      <c r="F10" s="9">
+        <v>42797</v>
       </c>
       <c r="G10" s="10">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H10" s="10">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -930,23 +924,23 @@
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="14">
+      <c r="C11" s="12">
         <v>7</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>16</v>
+      <c r="D11" s="11" t="s">
+        <v>8</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>17</v>
+      <c r="E11" s="9">
+        <v>42797</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>18</v>
+      <c r="F11" s="9">
+        <v>42797</v>
       </c>
       <c r="G11" s="10">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H11" s="10">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -971,12 +965,24 @@
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="C12" s="12">
+        <v>8</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="9">
+        <v>42828</v>
+      </c>
+      <c r="F12" s="9">
+        <v>42828</v>
+      </c>
+      <c r="G12" s="10">
+        <v>10</v>
+      </c>
+      <c r="H12" s="10">
+        <v>10</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -29655,5 +29661,6 @@
     <mergeCell ref="C2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>